--- a/src/backend/Records/LOL_RPB.xlsx
+++ b/src/backend/Records/LOL_RPB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,189 +436,212 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>part_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>part_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>problem_type</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>quadrant</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>FR102LW</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6630</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1ra Sobremedida</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Lower</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FR100-LW </t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
         <v>3631</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FR100-LW </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Lower</t>
         </is>
       </c>
-      <c r="E2" t="n">
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DOORFRAME</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2087</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1ra Sobremedida</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Lower</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BMCJ-LH </t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6546</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Quemadura</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EB</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3196</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CFO-RE-RH-UP</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4238</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2da Sobremedida</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BMCJ-LH </t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2087</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>DOORFRAME</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="C8" t="n">
+        <v>5953</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BEAML-RH </t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6424</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>1ra Sobremedida</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Lower</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>6546</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BMCJ-LH </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Quemadura</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3196</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>EB</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Upper</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4238</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CFO-RE-RH-UP</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2da Sobremedida</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5953</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BMCJ-LH </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6424</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BEAML-RH </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1ra Sobremedida</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
